--- a/data/fractionation/221123 Batch 131 Water Year Summary.xlsx
+++ b/data/fractionation/221123 Batch 131 Water Year Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ADCF92-F65C-459B-8933-21D304756C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0F9EB-39B5-4D89-959A-33A73721CDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="203">
   <si>
     <t>calculated density p(20)</t>
   </si>
@@ -671,24 +671,12 @@
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>DNA (ng/ul)</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>A11</t>
   </si>
   <si>
@@ -777,9 +765,6 @@
   </si>
   <si>
     <t>Grayed out rows are not included in the graphs below</t>
-  </si>
-  <si>
-    <t>Leaked during centrifugation (lost ~250 ul); parafilmed top and fractioned</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1242,9 +1227,6 @@
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1254,9 +1236,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1878,133 +1857,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$I$5:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7714514710000024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7648949110000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7594311110000014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7528745510000014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7463179910000015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7397614309999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.735390391000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7288338310000011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7235612640000024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7170047040000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7115409040000014</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7071698640000026</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7008045369999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6942479770000016</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6887841770000023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6833203770000029</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6767638170000012</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6647434570000019</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6155692570000024</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$J$5:$J$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.302659524695782E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6819823128261375E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5953274265781487E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22009898543555118</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6439834523318313</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81793560705592805</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4490795313984535</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.395059163488706</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.981414665916079</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.78092183163794</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.196329706932579</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.3743249976153722</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2613484911971362</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1153061473809081</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.51578914425537348</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25519634523840712</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1587317261331794</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16977628293729033</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23328844580933897</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2049,133 +1913,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$L$5:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7687468900000027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7643758500000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7578192900000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7512627300000023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7447061700000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7392423700000013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7326858100000013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.727222010000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7206654500000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7153928830000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7088363230000017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7033725230000023</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6979087230000012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6913521630000012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6858883630000019</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6815173230000031</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6738680030000008</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6585693630000016</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5908182430000011</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$M$5:$M$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.1308754782421976E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1677389564800527E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10582460664993261</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43952617036105052</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47016982634324994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83692444666053911</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6698476321144962</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.7299012453760216</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.282965977569884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.160915798243018</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8383294116944384</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.8482717577489791</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2153481737918395</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.69830579127912584</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34996967449318372</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.20115182630100217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.14726026276771806</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1525056648867745</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.16405673708482116</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2220,132 +1969,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$O$5:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7429031160000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7623815629999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7582017560000018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7525467230000018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7459901630000019</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7405263630000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7352537960000021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7297899960000027</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7254189560000022</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7188623960000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7144913560000017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7090275560000023</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.703563756000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6991927160000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6948216760000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6915433960000019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6860795960000026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6806157960000032</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6709721890000004</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$P$5:$P$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3851535647567423E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2275007657922998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7969351156531275E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30347247632346619</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93552728699251786</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0917573269363241</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2132958050626987</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2738392933175513</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1684006087862846</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.2919539818804111</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.4050791009230137</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3958062189629072</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2018570302304592</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.77764469914923173</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.60897087601468114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.36645365328527663</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.19791209783523431</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.12330072667005824</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.5232707537222563E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,7 +2083,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$R$5:$R$23</c:f>
+              <c:f>Summary!$I$5:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2515,7 +2149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$S$5:$S$23</c:f>
+              <c:f>Summary!$J$5:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2624,132 +2258,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$U$5:$U$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7648129540000017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7593491540000024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7538853540000012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7473287940000031</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7418649940000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7354996670000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7025256340000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7234793069999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7169227470000017</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7114589470000023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.705995147000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6994385870000013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6939747870000019</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6885109870000026</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6830471870000032</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6764906270000015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6655630270000028</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6163888270000033</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4830721070000035</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$V$5:$V$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.15481670083942353</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36636390145083481</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68104049860235116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2420434406454548</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3647006892616163</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0231126516228719</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1510399736967605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5297933942406559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3908946974253906</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1024939907751419</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7816293964409755</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74377241259392812</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.47636754148788324</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2778505957102107</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15975888126024382</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.9764265690536291E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.3493608646099657E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.025372858014328E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6323400348893108E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3095,2912 +2614,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Density Profile</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>A</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$C$4:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.7043560070000012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7764781670000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7677360870000012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7589940070000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7524374470000019</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7471648800000015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7406083199999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7351445200000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7285879600000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7231241600000011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7165675999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7111038000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7058312330000014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6992746729999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6938108730000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6896310660000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6830745060000023</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.675425186</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6644975860000013</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6251582259999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4929342660000007</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2778517790000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60DC-43B1-9B31-8154691C62A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>B</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$F$4:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.7127702590000009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7728720590000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7663154990000027</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.759758939000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7532023790000011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7468370520000018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7413732520000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7348166920000008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7293528920000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7238890920000021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.717523765000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7120599650000017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7055034050000017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7000396050000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6936742780000014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6871177180000014</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6816539180000021</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6750973580000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6619842380000023</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6139027980000016</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4696584780000013</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2685906380000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-60DC-43B1-9B31-8154691C62A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$I$4:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.7166222380000011</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7714514710000024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7648949110000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7594311110000014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7528745510000014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7463179910000015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7397614309999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.735390391000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7288338310000011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7235612640000024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7170047040000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7115409040000014</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7071698640000026</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7008045369999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6942479770000016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6887841770000023</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6833203770000029</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6767638170000012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6647434570000019</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6155692570000024</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4800670169999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2527729370000014</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-60DC-43B1-9B31-8154691C62A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>D</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$L$4:$L$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.7141088900000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7687468900000027</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7643758500000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7578192900000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7512627300000023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7447061700000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7392423700000013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7326858100000013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.727222010000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7206654500000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7153928830000016</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7088363230000017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7033725230000023</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6979087230000012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6913521630000012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6858883630000019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6815173230000031</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6738680030000008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6585693630000016</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5908182430000011</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4476666830000013</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2072594830000014</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-60DC-43B1-9B31-8154691C62A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>E</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$O$4:$O$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.0346034030000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7429031160000008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7623815629999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7582017560000018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7525467230000018</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7459901630000019</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7405263630000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7352537960000021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7297899960000027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7254189560000022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7188623960000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7144913560000017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7090275560000023</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.703563756000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6991927160000007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6948216760000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6915433960000019</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6860795960000026</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6806157960000032</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6709721890000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6294473090000015</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5081509490000027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-60DC-43B1-9B31-8154691C62A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>F</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-60DC-43B1-9B31-8154691C62A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>G</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$R$4:$R$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.6999576479999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7698942880000033</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7635289610000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7580651610000011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7515086010000029</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7449520410000012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7383954810000013</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7329316810000019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7274678810000026</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7220040810000015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7154475210000015</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7110764810000028</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7047111540000035</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6981545940000018</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6915980340000019</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6872269940000013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6806704340000032</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6730211140000009</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6489803940000023</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5724871940000025</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4162225140000029</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.264328874000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-60DC-43B1-9B31-8154691C62A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>H</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$U$4:$U$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.264328874000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7648129540000017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7593491540000024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7538853540000012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7473287940000031</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7418649940000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7354996670000009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7025256340000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7234793069999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7169227470000017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7114589470000023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.705995147000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6994385870000013</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6939747870000019</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6885109870000026</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6830471870000032</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6764906270000015</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6655630270000028</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6163888270000033</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4830721070000035</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.2830970270000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1388527070000016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-60DC-43B1-9B31-8154691C62A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>I</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-840C-4090-B361-EFF163F15229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>J</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-840C-4090-B361-EFF163F15229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>K</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-840C-4090-B361-EFF163F15229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>L</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-840C-4090-B361-EFF163F15229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>M</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-840C-4090-B361-EFF163F15229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>N</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-840C-4090-B361-EFF163F15229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>O</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-840C-4090-B361-EFF163F15229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>P</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$A$4:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-840C-4090-B361-EFF163F15229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="511216624"/>
-        <c:axId val="511217040"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="511216624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Fraction</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="511217040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="511217040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CsCl</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (g/ml)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="511216624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6956,46 +3569,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8067,522 +4640,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8593,8 +4650,8 @@
       <xdr:rowOff>55032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>194734</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>116415</xdr:rowOff>
     </xdr:to>
@@ -8625,50 +4682,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>551391</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>61079</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>93134</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AE4510-4E41-46C0-A33F-3A5611C60092}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>260349</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>103716</xdr:rowOff>
     </xdr:to>
@@ -8691,7 +4712,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9101,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -9122,44 +5143,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9172,7 +5193,7 @@
         <v>Tube A</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D5" s="64">
         <v>44888</v>
@@ -9202,7 +5223,7 @@
         <v>Tube B</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D6" s="64">
         <v>44888</v>
@@ -9224,160 +5245,37 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="63">
-        <f>'Tube Loading'!F31</f>
-        <v>3961</v>
+        <f>'Tube Loading'!F35</f>
+        <v>1449</v>
       </c>
       <c r="B7" s="63" t="str">
-        <f>'Tube Loading'!A31</f>
-        <v>Tube C</v>
+        <f>'Tube Loading'!A35</f>
+        <v>Tube G</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="64">
         <v>44888</v>
       </c>
-      <c r="E7" s="63">
-        <v>114.5</v>
+      <c r="E7">
+        <v>118</v>
       </c>
       <c r="G7" s="63">
-        <f>'Tube Loading'!J31</f>
-        <v>4000</v>
+        <f>'Tube Loading'!J35</f>
+        <v>3999.9999999999995</v>
       </c>
       <c r="H7" s="50">
         <f>Summary!J26</f>
-        <v>65.898677066182827</v>
+        <v>49.759706664583277</v>
       </c>
       <c r="I7" s="65">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="63">
-        <f>'Tube Loading'!F32</f>
-        <v>4016</v>
-      </c>
-      <c r="B8" s="63" t="str">
-        <f>'Tube Loading'!A32</f>
-        <v>Tube D</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="64">
-        <v>44888</v>
-      </c>
-      <c r="E8">
-        <v>114.5</v>
-      </c>
-      <c r="G8" s="63">
-        <f>'Tube Loading'!J32</f>
-        <v>4000</v>
-      </c>
-      <c r="H8" s="50">
-        <f>Summary!M26</f>
-        <v>57.514207550988075</v>
-      </c>
-      <c r="I8" s="50">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="63">
-        <f>'Tube Loading'!F33</f>
-        <v>4007</v>
-      </c>
-      <c r="B9" s="63" t="str">
-        <f>'Tube Loading'!A33</f>
-        <v>Tube E</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="64">
-        <v>44888</v>
-      </c>
-      <c r="E9">
-        <v>118</v>
-      </c>
-      <c r="G9" s="63">
-        <f>'Tube Loading'!J33</f>
-        <v>4000.0000000000005</v>
-      </c>
-      <c r="H9" s="50">
-        <f>Summary!P26</f>
-        <v>37.693289211136729</v>
-      </c>
-      <c r="I9" s="65">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="63">
-        <f>'Tube Loading'!F35</f>
-        <v>1449</v>
-      </c>
-      <c r="B10" s="63" t="str">
-        <f>'Tube Loading'!A35</f>
-        <v>Tube G</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="64">
-        <v>44888</v>
-      </c>
-      <c r="E10">
-        <v>118</v>
-      </c>
-      <c r="G10" s="63">
-        <f>'Tube Loading'!J35</f>
-        <v>3999.9999999999995</v>
-      </c>
-      <c r="H10" s="50">
-        <f>Summary!S26</f>
-        <v>49.759706664583277</v>
-      </c>
-      <c r="I10" s="65">
-        <v>37</v>
-      </c>
-    </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="63">
-        <f>'Tube Loading'!F36</f>
-        <v>3647</v>
-      </c>
-      <c r="B11" s="63" t="str">
-        <f>'Tube Loading'!A36</f>
-        <v>Tube H</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="64">
-        <v>44888</v>
-      </c>
-      <c r="E11">
-        <v>118</v>
-      </c>
-      <c r="G11" s="63">
-        <f>'Tube Loading'!J36</f>
-        <v>4000</v>
-      </c>
-      <c r="H11" s="50">
-        <f>Summary!V26</f>
-        <v>34.770913910856798</v>
-      </c>
-      <c r="I11" s="50">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>203</v>
+      <c r="A11" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -10263,7 +6161,7 @@
         <v>136</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -10438,7 +6336,7 @@
         <v>1.6885109870000026</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10463,7 +6361,7 @@
         <v>1.6830471870000032</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10488,7 +6386,7 @@
         <v>1.6764906270000015</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10513,7 +6411,7 @@
         <v>1.6655630270000028</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10538,7 +6436,7 @@
         <v>1.6163888270000033</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10563,7 +6461,7 @@
         <v>1.4830721070000035</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10588,7 +6486,7 @@
         <v>1.2830970270000002</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10613,7 +6511,7 @@
         <v>1.1388527070000016</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -12579,7 +8477,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12600,7 +8498,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12621,7 +8519,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12642,7 +8540,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12663,7 +8561,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12684,7 +8582,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12705,7 +8603,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12726,7 +8624,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -15911,7 +11809,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -15932,7 +11830,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -15953,7 +11851,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -15974,7 +11872,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -15995,7 +11893,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -16016,7 +11914,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -16037,7 +11935,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -16058,7 +11956,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -17286,10 +13184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
@@ -17297,26 +13195,22 @@
     <col min="1" max="1" width="9.54296875" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6328125" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.81640625" style="53"/>
-    <col min="8" max="8" width="10.81640625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="53"/>
-    <col min="10" max="11" width="11" style="53" customWidth="1"/>
-    <col min="12" max="16384" width="10.81640625" style="53"/>
+    <col min="4" max="16384" width="10.81640625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13" thickTop="1">
+    <row r="1" spans="1:10" ht="13" thickTop="1">
       <c r="A1" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="98">
+        <v>181</v>
+      </c>
+      <c r="B1" s="94">
         <f>'Tube Loading'!$F$29</f>
         <v>1433</v>
       </c>
-      <c r="C1" s="99" t="str">
+      <c r="C1" s="95" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$29,"density")</f>
         <v>1433-density</v>
       </c>
-      <c r="D1" s="100" t="str">
+      <c r="D1" s="96" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$29,"conc")</f>
         <v>1433-conc</v>
       </c>
@@ -17333,175 +13227,71 @@
         <v>3652-conc</v>
       </c>
       <c r="H1" s="53">
-        <f>'Tube Loading'!$F$31</f>
-        <v>3961</v>
-      </c>
-      <c r="I1" s="53" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$31,"density")</f>
-        <v>3961-density</v>
-      </c>
-      <c r="J1" s="53" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$31,"conc")</f>
-        <v>3961-conc</v>
-      </c>
-      <c r="K1" s="53">
-        <f>'Tube Loading'!$F$32</f>
-        <v>4016</v>
-      </c>
-      <c r="L1" s="53" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$32,"density")</f>
-        <v>4016-density</v>
-      </c>
-      <c r="M1" s="53" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$32,"conc")</f>
-        <v>4016-conc</v>
-      </c>
-      <c r="N1" s="53">
-        <f>'Tube Loading'!$F$33</f>
-        <v>4007</v>
-      </c>
-      <c r="O1" s="53" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$33,"density")</f>
-        <v>4007-density</v>
-      </c>
-      <c r="P1" s="53" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$33,"conc")</f>
-        <v>4007-conc</v>
-      </c>
-      <c r="Q1" s="53">
         <f>'Tube Loading'!$F$35</f>
         <v>1449</v>
       </c>
-      <c r="R1" s="53" t="str">
+      <c r="I1" s="53" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$35,"density")</f>
         <v>1449-density</v>
       </c>
-      <c r="S1" s="53" t="str">
+      <c r="J1" s="53" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$35,"conc")</f>
         <v>1449-conc</v>
       </c>
-      <c r="T1" s="53">
-        <f>'Tube Loading'!$F$36</f>
-        <v>3647</v>
-      </c>
-      <c r="U1" s="53" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$36,"density")</f>
-        <v>3647-density</v>
-      </c>
-      <c r="V1" s="53" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,'Tube Loading'!$F$36,"conc")</f>
-        <v>3647-conc</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="104" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="104" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="101" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="R2" s="102"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="103"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="59" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="O3" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="P3" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q3" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="R3" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="S3" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="T3" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="U3" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="V3" s="83" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>171</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="53">
         <v>1</v>
       </c>
@@ -17528,62 +13318,18 @@
         <v>1.3432892500291352E-2</v>
       </c>
       <c r="H4" s="66" t="str">
-        <f>'Tube C'!G2</f>
-        <v>D6</v>
-      </c>
-      <c r="I4" s="67">
-        <f>'Tube C'!F2</f>
-        <v>1.7166222380000011</v>
-      </c>
-      <c r="J4" s="68">
-        <v>2.2246833556558491E-2</v>
-      </c>
-      <c r="K4" s="66" t="str">
-        <f>'Tube D'!G2</f>
-        <v>C9</v>
-      </c>
-      <c r="L4" s="67">
-        <f>'Tube D'!F2</f>
-        <v>1.7141088900000003</v>
-      </c>
-      <c r="M4" s="68">
-        <v>1.8787077405582758E-2</v>
-      </c>
-      <c r="N4" s="66" t="str">
-        <f>'Tube E'!G2</f>
-        <v>A1</v>
-      </c>
-      <c r="O4" s="67">
-        <f>'Tube E'!F2</f>
-        <v>1.0346034030000002</v>
-      </c>
-      <c r="P4" s="68">
-        <v>-1.1214721409910228E-2</v>
-      </c>
-      <c r="Q4" s="66" t="str">
         <f>'Tube G'!G2</f>
         <v>D6</v>
       </c>
-      <c r="R4" s="67">
+      <c r="I4" s="67">
         <f>'Tube G'!F2</f>
         <v>1.6999576479999998</v>
       </c>
-      <c r="S4" s="68">
+      <c r="J4" s="68">
         <v>-1.6625720435034266E-2</v>
       </c>
-      <c r="T4" s="66" t="str">
-        <f>'Tube H'!G2</f>
-        <v>C9</v>
-      </c>
-      <c r="U4" s="67">
-        <f>'Tube H'!F2</f>
-        <v>1.264328874000002</v>
-      </c>
-      <c r="V4" s="68">
-        <v>2.1439691742804412E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -17610,62 +13356,18 @@
         <v>1.0712015304864602E-2</v>
       </c>
       <c r="H5" s="69" t="str">
-        <f>'Tube C'!G3</f>
-        <v>C6</v>
-      </c>
-      <c r="I5" s="70">
-        <f>'Tube C'!F3</f>
-        <v>1.7714514710000024</v>
-      </c>
-      <c r="J5" s="71">
-        <v>5.302659524695782E-3</v>
-      </c>
-      <c r="K5" s="69" t="str">
-        <f>'Tube D'!G3</f>
-        <v>D9</v>
-      </c>
-      <c r="L5" s="70">
-        <f>'Tube D'!F3</f>
-        <v>1.7687468900000027</v>
-      </c>
-      <c r="M5" s="71">
-        <v>6.1308754782421976E-3</v>
-      </c>
-      <c r="N5" s="69" t="str">
-        <f>'Tube E'!G3</f>
-        <v>B1</v>
-      </c>
-      <c r="O5" s="70">
-        <f>'Tube E'!F3</f>
-        <v>1.7429031160000008</v>
-      </c>
-      <c r="P5" s="71">
-        <v>1.3851535647567423E-2</v>
-      </c>
-      <c r="Q5" s="69" t="str">
         <f>'Tube G'!G3</f>
         <v>C6</v>
       </c>
-      <c r="R5" s="70">
+      <c r="I5" s="70">
         <f>'Tube G'!F3</f>
         <v>1.7698942880000033</v>
       </c>
-      <c r="S5" s="71">
+      <c r="J5" s="71">
         <v>-6.2406529347050375E-3</v>
       </c>
-      <c r="T5" s="69" t="str">
-        <f>'Tube H'!G3</f>
-        <v>D9</v>
-      </c>
-      <c r="U5" s="70">
-        <f>'Tube H'!F3</f>
-        <v>1.7648129540000017</v>
-      </c>
-      <c r="V5" s="71">
-        <v>0.15481670083942353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="53">
         <v>3</v>
       </c>
@@ -17692,62 +13394,18 @@
         <v>0.28390268942704555</v>
       </c>
       <c r="H6" s="69" t="str">
-        <f>'Tube C'!G4</f>
-        <v>B6</v>
-      </c>
-      <c r="I6" s="70">
-        <f>'Tube C'!F4</f>
-        <v>1.7648949110000007</v>
-      </c>
-      <c r="J6" s="71">
-        <v>3.6819823128261375E-2</v>
-      </c>
-      <c r="K6" s="69" t="str">
-        <f>'Tube D'!G4</f>
-        <v>E9</v>
-      </c>
-      <c r="L6" s="70">
-        <f>'Tube D'!F4</f>
-        <v>1.7643758500000004</v>
-      </c>
-      <c r="M6" s="71">
-        <v>1.1677389564800527E-2</v>
-      </c>
-      <c r="N6" s="69" t="str">
-        <f>'Tube E'!G4</f>
-        <v>C1</v>
-      </c>
-      <c r="O6" s="70">
-        <f>'Tube E'!F4</f>
-        <v>1.7623815629999999</v>
-      </c>
-      <c r="P6" s="71">
-        <v>1.2275007657922998E-2</v>
-      </c>
-      <c r="Q6" s="69" t="str">
         <f>'Tube G'!G4</f>
         <v>B6</v>
       </c>
-      <c r="R6" s="70">
+      <c r="I6" s="70">
         <f>'Tube G'!F4</f>
         <v>1.7635289610000005</v>
       </c>
-      <c r="S6" s="71">
+      <c r="J6" s="71">
         <v>2.1019924123382345E-2</v>
       </c>
-      <c r="T6" s="69" t="str">
-        <f>'Tube H'!G4</f>
-        <v>E9</v>
-      </c>
-      <c r="U6" s="70">
-        <f>'Tube H'!F4</f>
-        <v>1.7593491540000024</v>
-      </c>
-      <c r="V6" s="71">
-        <v>0.36636390145083481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="53">
         <v>4</v>
       </c>
@@ -17774,62 +13432,18 @@
         <v>0.86682764044227179</v>
       </c>
       <c r="H7" s="69" t="str">
-        <f>'Tube C'!G5</f>
-        <v>A6</v>
-      </c>
-      <c r="I7" s="70">
-        <f>'Tube C'!F5</f>
-        <v>1.7594311110000014</v>
-      </c>
-      <c r="J7" s="71">
-        <v>3.5953274265781487E-2</v>
-      </c>
-      <c r="K7" s="69" t="str">
-        <f>'Tube D'!G5</f>
-        <v>F9</v>
-      </c>
-      <c r="L7" s="70">
-        <f>'Tube D'!F5</f>
-        <v>1.7578192900000005</v>
-      </c>
-      <c r="M7" s="71">
-        <v>0.10582460664993261</v>
-      </c>
-      <c r="N7" s="69" t="str">
-        <f>'Tube E'!G5</f>
-        <v>D1</v>
-      </c>
-      <c r="O7" s="70">
-        <f>'Tube E'!F5</f>
-        <v>1.7582017560000018</v>
-      </c>
-      <c r="P7" s="71">
-        <v>8.7969351156531275E-2</v>
-      </c>
-      <c r="Q7" s="69" t="str">
         <f>'Tube G'!G5</f>
         <v>A6</v>
       </c>
-      <c r="R7" s="70">
+      <c r="I7" s="70">
         <f>'Tube G'!F5</f>
         <v>1.7580651610000011</v>
       </c>
-      <c r="S7" s="71">
+      <c r="J7" s="71">
         <v>7.3097158458583292E-2</v>
       </c>
-      <c r="T7" s="69" t="str">
-        <f>'Tube H'!G5</f>
-        <v>F9</v>
-      </c>
-      <c r="U7" s="70">
-        <f>'Tube H'!F5</f>
-        <v>1.7538853540000012</v>
-      </c>
-      <c r="V7" s="71">
-        <v>0.68104049860235116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="53">
         <v>5</v>
       </c>
@@ -17856,62 +13470,18 @@
         <v>1.3560617996684643</v>
       </c>
       <c r="H8" s="69" t="str">
-        <f>'Tube C'!G6</f>
-        <v>A7</v>
-      </c>
-      <c r="I8" s="70">
-        <f>'Tube C'!F6</f>
-        <v>1.7528745510000014</v>
-      </c>
-      <c r="J8" s="71">
-        <v>0.22009898543555118</v>
-      </c>
-      <c r="K8" s="69" t="str">
-        <f>'Tube D'!G6</f>
-        <v>G9</v>
-      </c>
-      <c r="L8" s="70">
-        <f>'Tube D'!F6</f>
-        <v>1.7512627300000023</v>
-      </c>
-      <c r="M8" s="71">
-        <v>0.43952617036105052</v>
-      </c>
-      <c r="N8" s="69" t="str">
-        <f>'Tube E'!G6</f>
-        <v>E1</v>
-      </c>
-      <c r="O8" s="70">
-        <f>'Tube E'!F6</f>
-        <v>1.7525467230000018</v>
-      </c>
-      <c r="P8" s="71">
-        <v>0.30347247632346619</v>
-      </c>
-      <c r="Q8" s="69" t="str">
         <f>'Tube G'!G6</f>
         <v>A7</v>
       </c>
-      <c r="R8" s="70">
+      <c r="I8" s="70">
         <f>'Tube G'!F6</f>
         <v>1.7515086010000029</v>
       </c>
-      <c r="S8" s="71">
+      <c r="J8" s="71">
         <v>0.30599125579315806</v>
       </c>
-      <c r="T8" s="69" t="str">
-        <f>'Tube H'!G6</f>
-        <v>G9</v>
-      </c>
-      <c r="U8" s="70">
-        <f>'Tube H'!F6</f>
-        <v>1.7473287940000031</v>
-      </c>
-      <c r="V8" s="71">
-        <v>1.2420434406454548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="53">
         <v>6</v>
       </c>
@@ -17938,62 +13508,18 @@
         <v>2.1579058680706362</v>
       </c>
       <c r="H9" s="69" t="str">
-        <f>'Tube C'!G7</f>
-        <v>B7</v>
-      </c>
-      <c r="I9" s="70">
-        <f>'Tube C'!F7</f>
-        <v>1.7463179910000015</v>
-      </c>
-      <c r="J9" s="71">
-        <v>0.6439834523318313</v>
-      </c>
-      <c r="K9" s="69" t="str">
-        <f>'Tube D'!G7</f>
-        <v>H9</v>
-      </c>
-      <c r="L9" s="70">
-        <f>'Tube D'!F7</f>
-        <v>1.7447061700000006</v>
-      </c>
-      <c r="M9" s="71">
-        <v>0.47016982634324994</v>
-      </c>
-      <c r="N9" s="69" t="str">
-        <f>'Tube E'!G7</f>
-        <v>F1</v>
-      </c>
-      <c r="O9" s="70">
-        <f>'Tube E'!F7</f>
-        <v>1.7459901630000019</v>
-      </c>
-      <c r="P9" s="71">
-        <v>0.93552728699251786</v>
-      </c>
-      <c r="Q9" s="69" t="str">
         <f>'Tube G'!G7</f>
         <v>B7</v>
       </c>
-      <c r="R9" s="70">
+      <c r="I9" s="70">
         <f>'Tube G'!F7</f>
         <v>1.7449520410000012</v>
       </c>
-      <c r="S9" s="71">
+      <c r="J9" s="71">
         <v>0.71414518008921812</v>
       </c>
-      <c r="T9" s="69" t="str">
-        <f>'Tube H'!G7</f>
-        <v>H9</v>
-      </c>
-      <c r="U9" s="70">
-        <f>'Tube H'!F7</f>
-        <v>1.7418649940000002</v>
-      </c>
-      <c r="V9" s="72">
-        <v>2.3647006892616163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="53">
         <v>7</v>
       </c>
@@ -18020,62 +13546,18 @@
         <v>3.979887113433076</v>
       </c>
       <c r="H10" s="69" t="str">
-        <f>'Tube C'!G8</f>
-        <v>C7</v>
-      </c>
-      <c r="I10" s="70">
-        <f>'Tube C'!F8</f>
-        <v>1.7397614309999998</v>
-      </c>
-      <c r="J10" s="71">
-        <v>0.81793560705592805</v>
-      </c>
-      <c r="K10" s="69" t="str">
-        <f>'Tube D'!G8</f>
-        <v>H10</v>
-      </c>
-      <c r="L10" s="70">
-        <f>'Tube D'!F8</f>
-        <v>1.7392423700000013</v>
-      </c>
-      <c r="M10" s="72">
-        <v>0.83692444666053911</v>
-      </c>
-      <c r="N10" s="69" t="str">
-        <f>'Tube E'!G8</f>
-        <v>G1</v>
-      </c>
-      <c r="O10" s="70">
-        <f>'Tube E'!F8</f>
-        <v>1.7405263630000007</v>
-      </c>
-      <c r="P10" s="71">
-        <v>2.0917573269363241</v>
-      </c>
-      <c r="Q10" s="69" t="str">
         <f>'Tube G'!G8</f>
         <v>C7</v>
       </c>
-      <c r="R10" s="70">
+      <c r="I10" s="70">
         <f>'Tube G'!F8</f>
         <v>1.7383954810000013</v>
       </c>
-      <c r="S10" s="71">
+      <c r="J10" s="71">
         <v>1.746573941957229</v>
       </c>
-      <c r="T10" s="69" t="str">
-        <f>'Tube H'!G8</f>
-        <v>H10</v>
-      </c>
-      <c r="U10" s="70">
-        <f>'Tube H'!F8</f>
-        <v>1.7354996670000009</v>
-      </c>
-      <c r="V10" s="72">
-        <v>3.0231126516228719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="53">
         <v>8</v>
       </c>
@@ -18102,62 +13584,18 @@
         <v>4.4508999135575031</v>
       </c>
       <c r="H11" s="69" t="str">
-        <f>'Tube C'!G9</f>
-        <v>D7</v>
-      </c>
-      <c r="I11" s="70">
-        <f>'Tube C'!F9</f>
-        <v>1.735390391000001</v>
-      </c>
-      <c r="J11" s="71">
-        <v>1.4490795313984535</v>
-      </c>
-      <c r="K11" s="69" t="str">
-        <f>'Tube D'!G9</f>
-        <v>G10</v>
-      </c>
-      <c r="L11" s="70">
-        <f>'Tube D'!F9</f>
-        <v>1.7326858100000013</v>
-      </c>
-      <c r="M11" s="72">
-        <v>2.6698476321144962</v>
-      </c>
-      <c r="N11" s="69" t="str">
-        <f>'Tube E'!G9</f>
-        <v>H1</v>
-      </c>
-      <c r="O11" s="70">
-        <f>'Tube E'!F9</f>
-        <v>1.7352537960000021</v>
-      </c>
-      <c r="P11" s="71">
-        <v>4.2132958050626987</v>
-      </c>
-      <c r="Q11" s="69" t="str">
         <f>'Tube G'!G9</f>
         <v>D7</v>
       </c>
-      <c r="R11" s="70">
+      <c r="I11" s="70">
         <f>'Tube G'!F9</f>
         <v>1.7329316810000019</v>
       </c>
-      <c r="S11" s="71">
+      <c r="J11" s="71">
         <v>3.9224248908967225</v>
       </c>
-      <c r="T11" s="69" t="str">
-        <f>'Tube H'!G9</f>
-        <v>G10</v>
-      </c>
-      <c r="U11" s="70">
-        <f>'Tube H'!F9</f>
-        <v>1.7025256340000006</v>
-      </c>
-      <c r="V11" s="72">
-        <v>5.1510399736967605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="53">
         <v>9</v>
       </c>
@@ -18184,62 +13622,18 @@
         <v>6.1703269533547376</v>
       </c>
       <c r="H12" s="69" t="str">
-        <f>'Tube C'!G10</f>
-        <v>E7</v>
-      </c>
-      <c r="I12" s="70">
-        <f>'Tube C'!F10</f>
-        <v>1.7288338310000011</v>
-      </c>
-      <c r="J12" s="71">
-        <v>5.395059163488706</v>
-      </c>
-      <c r="K12" s="69" t="str">
-        <f>'Tube D'!G10</f>
-        <v>F10</v>
-      </c>
-      <c r="L12" s="70">
-        <f>'Tube D'!F10</f>
-        <v>1.727222010000002</v>
-      </c>
-      <c r="M12" s="72">
-        <v>9.7299012453760216</v>
-      </c>
-      <c r="N12" s="69" t="str">
-        <f>'Tube E'!G10</f>
-        <v>H2</v>
-      </c>
-      <c r="O12" s="70">
-        <f>'Tube E'!F10</f>
-        <v>1.7297899960000027</v>
-      </c>
-      <c r="P12" s="71">
-        <v>6.2738392933175513</v>
-      </c>
-      <c r="Q12" s="69" t="str">
         <f>'Tube G'!G10</f>
         <v>E7</v>
       </c>
-      <c r="R12" s="70">
+      <c r="I12" s="70">
         <f>'Tube G'!F10</f>
         <v>1.7274678810000026</v>
       </c>
-      <c r="S12" s="71">
+      <c r="J12" s="71">
         <v>9.227496351661971</v>
       </c>
-      <c r="T12" s="69" t="str">
-        <f>'Tube H'!G10</f>
-        <v>F10</v>
-      </c>
-      <c r="U12" s="70">
-        <f>'Tube H'!F10</f>
-        <v>1.7234793069999998</v>
-      </c>
-      <c r="V12" s="72">
-        <v>7.5297933942406559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="53">
         <v>10</v>
       </c>
@@ -18266,62 +13660,18 @@
         <v>10.205984007402265</v>
       </c>
       <c r="H13" s="69" t="str">
-        <f>'Tube C'!G11</f>
-        <v>F7</v>
-      </c>
-      <c r="I13" s="70">
-        <f>'Tube C'!F11</f>
-        <v>1.7235612640000024</v>
-      </c>
-      <c r="J13" s="71">
-        <v>14.981414665916079</v>
-      </c>
-      <c r="K13" s="69" t="str">
-        <f>'Tube D'!G11</f>
-        <v>E10</v>
-      </c>
-      <c r="L13" s="70">
-        <f>'Tube D'!F11</f>
-        <v>1.7206654500000003</v>
-      </c>
-      <c r="M13" s="71">
-        <v>16.282965977569884</v>
-      </c>
-      <c r="N13" s="69" t="str">
-        <f>'Tube E'!G11</f>
-        <v>G2</v>
-      </c>
-      <c r="O13" s="70">
-        <f>'Tube E'!F11</f>
-        <v>1.7254189560000022</v>
-      </c>
-      <c r="P13" s="72">
-        <v>7.1684006087862846</v>
-      </c>
-      <c r="Q13" s="69" t="str">
         <f>'Tube G'!G11</f>
         <v>F7</v>
       </c>
-      <c r="R13" s="70">
+      <c r="I13" s="70">
         <f>'Tube G'!F11</f>
         <v>1.7220040810000015</v>
       </c>
-      <c r="S13" s="71">
+      <c r="J13" s="71">
         <v>11.988861788191608</v>
       </c>
-      <c r="T13" s="69" t="str">
-        <f>'Tube H'!G11</f>
-        <v>E10</v>
-      </c>
-      <c r="U13" s="70">
-        <f>'Tube H'!F11</f>
-        <v>1.7169227470000017</v>
-      </c>
-      <c r="V13" s="72">
-        <v>6.3908946974253906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="53">
         <v>11</v>
       </c>
@@ -18348,62 +13698,18 @@
         <v>8.2139724277361559</v>
       </c>
       <c r="H14" s="69" t="str">
-        <f>'Tube C'!G12</f>
-        <v>G7</v>
-      </c>
-      <c r="I14" s="70">
-        <f>'Tube C'!F12</f>
-        <v>1.7170047040000007</v>
-      </c>
-      <c r="J14" s="73">
-        <v>17.78092183163794</v>
-      </c>
-      <c r="K14" s="69" t="str">
-        <f>'Tube D'!G12</f>
-        <v>D10</v>
-      </c>
-      <c r="L14" s="74">
-        <f>'Tube D'!F12</f>
-        <v>1.7153928830000016</v>
-      </c>
-      <c r="M14" s="73">
-        <v>13.160915798243018</v>
-      </c>
-      <c r="N14" s="69" t="str">
-        <f>'Tube E'!G12</f>
-        <v>F2</v>
-      </c>
-      <c r="O14" s="70">
-        <f>'Tube E'!F12</f>
-        <v>1.7188623960000005</v>
-      </c>
-      <c r="P14" s="72">
-        <v>6.2919539818804111</v>
-      </c>
-      <c r="Q14" s="69" t="str">
         <f>'Tube G'!G12</f>
         <v>G7</v>
       </c>
-      <c r="R14" s="70">
+      <c r="I14" s="70">
         <f>'Tube G'!F12</f>
         <v>1.7154475210000015</v>
       </c>
-      <c r="S14" s="71">
+      <c r="J14" s="71">
         <v>10.26531982413016</v>
       </c>
-      <c r="T14" s="69" t="str">
-        <f>'Tube H'!G12</f>
-        <v>D10</v>
-      </c>
-      <c r="U14" s="70">
-        <f>'Tube H'!F12</f>
-        <v>1.7114589470000023</v>
-      </c>
-      <c r="V14" s="72">
-        <v>4.1024939907751419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="53">
         <v>12</v>
       </c>
@@ -18430,62 +13736,18 @@
         <v>4.7309509524534512</v>
       </c>
       <c r="H15" s="69" t="str">
-        <f>'Tube C'!G13</f>
-        <v>H7</v>
-      </c>
-      <c r="I15" s="70">
-        <f>'Tube C'!F13</f>
-        <v>1.7115409040000014</v>
-      </c>
-      <c r="J15" s="73">
-        <v>13.196329706932579</v>
-      </c>
-      <c r="K15" s="69" t="str">
-        <f>'Tube D'!G13</f>
-        <v>C10</v>
-      </c>
-      <c r="L15" s="74">
-        <f>'Tube D'!F13</f>
-        <v>1.7088363230000017</v>
-      </c>
-      <c r="M15" s="73">
-        <v>7.8383294116944384</v>
-      </c>
-      <c r="N15" s="69" t="str">
-        <f>'Tube E'!G13</f>
-        <v>E2</v>
-      </c>
-      <c r="O15" s="70">
-        <f>'Tube E'!F13</f>
-        <v>1.7144913560000017</v>
-      </c>
-      <c r="P15" s="72">
-        <v>4.4050791009230137</v>
-      </c>
-      <c r="Q15" s="69" t="str">
         <f>'Tube G'!G13</f>
         <v>H7</v>
       </c>
-      <c r="R15" s="70">
+      <c r="I15" s="70">
         <f>'Tube G'!F13</f>
         <v>1.7110764810000028</v>
       </c>
-      <c r="S15" s="71">
+      <c r="J15" s="71">
         <v>6.2742965686556316</v>
       </c>
-      <c r="T15" s="69" t="str">
-        <f>'Tube H'!G13</f>
-        <v>C10</v>
-      </c>
-      <c r="U15" s="70">
-        <f>'Tube H'!F13</f>
-        <v>1.705995147000003</v>
-      </c>
-      <c r="V15" s="71">
-        <v>1.7816293964409755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="53">
         <v>13</v>
       </c>
@@ -18512,62 +13774,18 @@
         <v>1.8744064399324782</v>
       </c>
       <c r="H16" s="69" t="str">
-        <f>'Tube C'!G14</f>
-        <v>H8</v>
-      </c>
-      <c r="I16" s="70">
-        <f>'Tube C'!F14</f>
-        <v>1.7071698640000026</v>
-      </c>
-      <c r="J16" s="73">
-        <v>6.3743249976153722</v>
-      </c>
-      <c r="K16" s="69" t="str">
-        <f>'Tube D'!G14</f>
-        <v>B10</v>
-      </c>
-      <c r="L16" s="74">
-        <f>'Tube D'!F14</f>
-        <v>1.7033725230000023</v>
-      </c>
-      <c r="M16" s="73">
-        <v>2.8482717577489791</v>
-      </c>
-      <c r="N16" s="69" t="str">
-        <f>'Tube E'!G14</f>
-        <v>D2</v>
-      </c>
-      <c r="O16" s="70">
-        <f>'Tube E'!F14</f>
-        <v>1.7090275560000023</v>
-      </c>
-      <c r="P16" s="72">
-        <v>2.3958062189629072</v>
-      </c>
-      <c r="Q16" s="69" t="str">
         <f>'Tube G'!G14</f>
         <v>H8</v>
       </c>
-      <c r="R16" s="70">
+      <c r="I16" s="70">
         <f>'Tube G'!F14</f>
         <v>1.7047111540000035</v>
       </c>
-      <c r="S16" s="71">
+      <c r="J16" s="71">
         <v>2.5107370073227746</v>
       </c>
-      <c r="T16" s="69" t="str">
-        <f>'Tube H'!G14</f>
-        <v>B10</v>
-      </c>
-      <c r="U16" s="70">
-        <f>'Tube H'!F14</f>
-        <v>1.6994385870000013</v>
-      </c>
-      <c r="V16" s="71">
-        <v>0.74377241259392812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="53">
         <v>14</v>
       </c>
@@ -18594,62 +13812,18 @@
         <v>0.78239740984585993</v>
       </c>
       <c r="H17" s="69" t="str">
-        <f>'Tube C'!G15</f>
-        <v>G8</v>
-      </c>
-      <c r="I17" s="70">
-        <f>'Tube C'!F15</f>
-        <v>1.7008045369999998</v>
-      </c>
-      <c r="J17" s="71">
-        <v>2.2613484911971362</v>
-      </c>
-      <c r="K17" s="69" t="str">
-        <f>'Tube D'!G15</f>
-        <v>A10</v>
-      </c>
-      <c r="L17" s="70">
-        <f>'Tube D'!F15</f>
-        <v>1.6979087230000012</v>
-      </c>
-      <c r="M17" s="71">
-        <v>1.2153481737918395</v>
-      </c>
-      <c r="N17" s="69" t="str">
-        <f>'Tube E'!G15</f>
-        <v>C2</v>
-      </c>
-      <c r="O17" s="70">
-        <f>'Tube E'!F15</f>
-        <v>1.703563756000003</v>
-      </c>
-      <c r="P17" s="72">
-        <v>1.2018570302304592</v>
-      </c>
-      <c r="Q17" s="69" t="str">
         <f>'Tube G'!G15</f>
         <v>G8</v>
       </c>
-      <c r="R17" s="70">
+      <c r="I17" s="70">
         <f>'Tube G'!F15</f>
         <v>1.6981545940000018</v>
       </c>
-      <c r="S17" s="71">
+      <c r="J17" s="71">
         <v>1.0882153322824084</v>
       </c>
-      <c r="T17" s="69" t="str">
-        <f>'Tube H'!G15</f>
-        <v>A10</v>
-      </c>
-      <c r="U17" s="70">
-        <f>'Tube H'!F15</f>
-        <v>1.6939747870000019</v>
-      </c>
-      <c r="V17" s="71">
-        <v>0.47636754148788324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="53">
         <v>15</v>
       </c>
@@ -18676,62 +13850,18 @@
         <v>0.46429613732693947</v>
       </c>
       <c r="H18" s="69" t="str">
-        <f>'Tube C'!G16</f>
-        <v>F8</v>
-      </c>
-      <c r="I18" s="70">
-        <f>'Tube C'!F16</f>
-        <v>1.6942479770000016</v>
-      </c>
-      <c r="J18" s="71">
-        <v>1.1153061473809081</v>
-      </c>
-      <c r="K18" s="69" t="str">
-        <f>'Tube D'!G16</f>
-        <v>A11</v>
-      </c>
-      <c r="L18" s="70">
-        <f>'Tube D'!F16</f>
-        <v>1.6913521630000012</v>
-      </c>
-      <c r="M18" s="71">
-        <v>0.69830579127912584</v>
-      </c>
-      <c r="N18" s="69" t="str">
-        <f>'Tube E'!G16</f>
-        <v>B2</v>
-      </c>
-      <c r="O18" s="70">
-        <f>'Tube E'!F16</f>
-        <v>1.6991927160000007</v>
-      </c>
-      <c r="P18" s="72">
-        <v>0.77764469914923173</v>
-      </c>
-      <c r="Q18" s="69" t="str">
         <f>'Tube G'!G16</f>
         <v>F8</v>
       </c>
-      <c r="R18" s="70">
+      <c r="I18" s="70">
         <f>'Tube G'!F16</f>
         <v>1.6915980340000019</v>
       </c>
-      <c r="S18" s="71">
+      <c r="J18" s="71">
         <v>0.70990451780672925</v>
       </c>
-      <c r="T18" s="69" t="str">
-        <f>'Tube H'!G16</f>
-        <v>A11</v>
-      </c>
-      <c r="U18" s="70">
-        <f>'Tube H'!F16</f>
-        <v>1.6885109870000026</v>
-      </c>
-      <c r="V18" s="71">
-        <v>0.2778505957102107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="53">
         <v>16</v>
       </c>
@@ -18758,62 +13888,18 @@
         <v>0.29035980824884805</v>
       </c>
       <c r="H19" s="69" t="str">
-        <f>'Tube C'!G17</f>
-        <v>E8</v>
-      </c>
-      <c r="I19" s="70">
-        <f>'Tube C'!F17</f>
-        <v>1.6887841770000023</v>
-      </c>
-      <c r="J19" s="71">
-        <v>0.51578914425537348</v>
-      </c>
-      <c r="K19" s="69" t="str">
-        <f>'Tube D'!G17</f>
-        <v>B11</v>
-      </c>
-      <c r="L19" s="70">
-        <f>'Tube D'!F17</f>
-        <v>1.6858883630000019</v>
-      </c>
-      <c r="M19" s="71">
-        <v>0.34996967449318372</v>
-      </c>
-      <c r="N19" s="69" t="str">
-        <f>'Tube E'!G17</f>
-        <v>A2</v>
-      </c>
-      <c r="O19" s="70">
-        <f>'Tube E'!F17</f>
-        <v>1.6948216760000001</v>
-      </c>
-      <c r="P19" s="72">
-        <v>0.60897087601468114</v>
-      </c>
-      <c r="Q19" s="69" t="str">
         <f>'Tube G'!G17</f>
         <v>E8</v>
       </c>
-      <c r="R19" s="70">
+      <c r="I19" s="70">
         <f>'Tube G'!F17</f>
         <v>1.6872269940000013</v>
       </c>
-      <c r="S19" s="71">
+      <c r="J19" s="71">
         <v>0.37844280196710622</v>
       </c>
-      <c r="T19" s="69" t="str">
-        <f>'Tube H'!G17</f>
-        <v>B11</v>
-      </c>
-      <c r="U19" s="70">
-        <f>'Tube H'!F17</f>
-        <v>1.6830471870000032</v>
-      </c>
-      <c r="V19" s="71">
-        <v>0.15975888126024382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="53">
         <v>17</v>
       </c>
@@ -18840,62 +13926,18 @@
         <v>0.15207951618668483</v>
       </c>
       <c r="H20" s="69" t="str">
-        <f>'Tube C'!G18</f>
-        <v>D8</v>
-      </c>
-      <c r="I20" s="70">
-        <f>'Tube C'!F18</f>
-        <v>1.6833203770000029</v>
-      </c>
-      <c r="J20" s="71">
-        <v>0.25519634523840712</v>
-      </c>
-      <c r="K20" s="69" t="str">
-        <f>'Tube D'!G18</f>
-        <v>C11</v>
-      </c>
-      <c r="L20" s="70">
-        <f>'Tube D'!F18</f>
-        <v>1.6815173230000031</v>
-      </c>
-      <c r="M20" s="71">
-        <v>0.20115182630100217</v>
-      </c>
-      <c r="N20" s="69" t="str">
-        <f>'Tube E'!G18</f>
-        <v>A3</v>
-      </c>
-      <c r="O20" s="70">
-        <f>'Tube E'!F18</f>
-        <v>1.6915433960000019</v>
-      </c>
-      <c r="P20" s="71">
-        <v>0.36645365328527663</v>
-      </c>
-      <c r="Q20" s="69" t="str">
         <f>'Tube G'!G18</f>
         <v>D8</v>
       </c>
-      <c r="R20" s="70">
+      <c r="I20" s="70">
         <f>'Tube G'!F18</f>
         <v>1.6806704340000032</v>
       </c>
-      <c r="S20" s="71">
+      <c r="J20" s="71">
         <v>0.15729053778141769</v>
       </c>
-      <c r="T20" s="69" t="str">
-        <f>'Tube H'!G18</f>
-        <v>C11</v>
-      </c>
-      <c r="U20" s="70">
-        <f>'Tube H'!F18</f>
-        <v>1.6764906270000015</v>
-      </c>
-      <c r="V20" s="71">
-        <v>8.9764265690536291E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="53">
         <v>18</v>
       </c>
@@ -18922,62 +13964,18 @@
         <v>8.2037299814070541E-2</v>
       </c>
       <c r="H21" s="69" t="str">
-        <f>'Tube C'!G19</f>
-        <v>C8</v>
-      </c>
-      <c r="I21" s="70">
-        <f>'Tube C'!F19</f>
-        <v>1.6767638170000012</v>
-      </c>
-      <c r="J21" s="71">
-        <v>0.1587317261331794</v>
-      </c>
-      <c r="K21" s="69" t="str">
-        <f>'Tube D'!G19</f>
-        <v>D11</v>
-      </c>
-      <c r="L21" s="70">
-        <f>'Tube D'!F19</f>
-        <v>1.6738680030000008</v>
-      </c>
-      <c r="M21" s="71">
-        <v>0.14726026276771806</v>
-      </c>
-      <c r="N21" s="69" t="str">
-        <f>'Tube E'!G19</f>
-        <v>B3</v>
-      </c>
-      <c r="O21" s="70">
-        <f>'Tube E'!F19</f>
-        <v>1.6860795960000026</v>
-      </c>
-      <c r="P21" s="71">
-        <v>0.19791209783523431</v>
-      </c>
-      <c r="Q21" s="69" t="str">
         <f>'Tube G'!G19</f>
         <v>C8</v>
       </c>
-      <c r="R21" s="70">
+      <c r="I21" s="70">
         <f>'Tube G'!F19</f>
         <v>1.6730211140000009</v>
       </c>
-      <c r="S21" s="71">
+      <c r="J21" s="71">
         <v>0.10135160490003459</v>
       </c>
-      <c r="T21" s="69" t="str">
-        <f>'Tube H'!G19</f>
-        <v>D11</v>
-      </c>
-      <c r="U21" s="70">
-        <f>'Tube H'!F19</f>
-        <v>1.6655630270000028</v>
-      </c>
-      <c r="V21" s="71">
-        <v>8.3493608646099657E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="53">
         <v>19</v>
       </c>
@@ -19004,62 +14002,18 @@
         <v>9.2806022801507293E-2</v>
       </c>
       <c r="H22" s="69" t="str">
-        <f>'Tube C'!G20</f>
-        <v>B8</v>
-      </c>
-      <c r="I22" s="70">
-        <f>'Tube C'!F20</f>
-        <v>1.6647434570000019</v>
-      </c>
-      <c r="J22" s="71">
-        <v>0.16977628293729033</v>
-      </c>
-      <c r="K22" s="69" t="str">
-        <f>'Tube D'!G20</f>
-        <v>E11</v>
-      </c>
-      <c r="L22" s="70">
-        <f>'Tube D'!F20</f>
-        <v>1.6585693630000016</v>
-      </c>
-      <c r="M22" s="71">
-        <v>0.1525056648867745</v>
-      </c>
-      <c r="N22" s="69" t="str">
-        <f>'Tube E'!G20</f>
-        <v>C3</v>
-      </c>
-      <c r="O22" s="70">
-        <f>'Tube E'!F20</f>
-        <v>1.6806157960000032</v>
-      </c>
-      <c r="P22" s="71">
-        <v>0.12330072667005824</v>
-      </c>
-      <c r="Q22" s="69" t="str">
         <f>'Tube G'!G20</f>
         <v>B8</v>
       </c>
-      <c r="R22" s="70">
+      <c r="I22" s="70">
         <f>'Tube G'!F20</f>
         <v>1.6489803940000023</v>
       </c>
-      <c r="S22" s="71">
+      <c r="J22" s="71">
         <v>0.12133477445878739</v>
       </c>
-      <c r="T22" s="69" t="str">
-        <f>'Tube H'!G20</f>
-        <v>E11</v>
-      </c>
-      <c r="U22" s="70">
-        <f>'Tube H'!F20</f>
-        <v>1.6163888270000033</v>
-      </c>
-      <c r="V22" s="71">
-        <v>6.025372858014328E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="53">
         <v>20</v>
       </c>
@@ -19086,62 +14040,18 @@
         <v>0.15023883557590934</v>
       </c>
       <c r="H23" s="69" t="str">
-        <f>'Tube C'!G21</f>
-        <v>A8</v>
-      </c>
-      <c r="I23" s="70">
-        <f>'Tube C'!F21</f>
-        <v>1.6155692570000024</v>
-      </c>
-      <c r="J23" s="71">
-        <v>0.23328844580933897</v>
-      </c>
-      <c r="K23" s="69" t="str">
-        <f>'Tube D'!G21</f>
-        <v>F11</v>
-      </c>
-      <c r="L23" s="70">
-        <f>'Tube D'!F21</f>
-        <v>1.5908182430000011</v>
-      </c>
-      <c r="M23" s="71">
-        <v>0.16405673708482116</v>
-      </c>
-      <c r="N23" s="69" t="str">
-        <f>'Tube E'!G21</f>
-        <v>D3</v>
-      </c>
-      <c r="O23" s="70">
-        <f>'Tube E'!F21</f>
-        <v>1.6709721890000004</v>
-      </c>
-      <c r="P23" s="71">
-        <v>8.5232707537222563E-2</v>
-      </c>
-      <c r="Q23" s="69" t="str">
         <f>'Tube G'!G21</f>
         <v>A8</v>
       </c>
-      <c r="R23" s="70">
+      <c r="I23" s="70">
         <f>'Tube G'!F21</f>
         <v>1.5724871940000025</v>
       </c>
-      <c r="S23" s="71">
+      <c r="J23" s="71">
         <v>8.5591272057726805E-2</v>
       </c>
-      <c r="T23" s="69" t="str">
-        <f>'Tube H'!G21</f>
-        <v>F11</v>
-      </c>
-      <c r="U23" s="70">
-        <f>'Tube H'!F21</f>
-        <v>1.4830721070000035</v>
-      </c>
-      <c r="V23" s="71">
-        <v>3.6323400348893108E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="53">
         <v>21</v>
       </c>
@@ -19168,309 +14078,155 @@
         <v>9.343254686392416E-2</v>
       </c>
       <c r="H24" s="66" t="str">
-        <f>'Tube C'!G22</f>
-        <v>A9</v>
-      </c>
-      <c r="I24" s="67">
-        <f>'Tube C'!F22</f>
-        <v>1.4800670169999997</v>
-      </c>
-      <c r="J24" s="68">
-        <v>0.15653516403021026</v>
-      </c>
-      <c r="K24" s="66" t="str">
-        <f>'Tube D'!G22</f>
-        <v>G11</v>
-      </c>
-      <c r="L24" s="67">
-        <f>'Tube D'!F22</f>
-        <v>1.4476666830000013</v>
-      </c>
-      <c r="M24" s="68">
-        <v>0.10958001840395622</v>
-      </c>
-      <c r="N24" s="66" t="str">
-        <f>'Tube E'!G22</f>
-        <v>E3</v>
-      </c>
-      <c r="O24" s="67">
-        <f>'Tube E'!F22</f>
-        <v>1.6294473090000015</v>
-      </c>
-      <c r="P24" s="68">
-        <v>8.8280169976394249E-2</v>
-      </c>
-      <c r="Q24" s="66" t="str">
         <f>'Tube G'!G22</f>
         <v>A9</v>
       </c>
-      <c r="R24" s="67">
+      <c r="I24" s="67">
         <f>'Tube G'!F22</f>
         <v>1.4162225140000029</v>
       </c>
-      <c r="S24" s="68">
+      <c r="J24" s="68">
         <v>4.7806821562146655E-2</v>
       </c>
-      <c r="T24" s="66" t="str">
-        <f>'Tube H'!G22</f>
-        <v>G11</v>
-      </c>
-      <c r="U24" s="67">
-        <f>'Tube H'!F22</f>
-        <v>1.2830970270000002</v>
-      </c>
-      <c r="V24" s="68">
-        <v>1.44452333995806E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="13" thickBot="1">
+    </row>
+    <row r="25" spans="1:10" ht="13" thickBot="1">
       <c r="A25" s="53">
         <v>22</v>
       </c>
-      <c r="B25" s="75" t="str">
+      <c r="B25" s="72" t="str">
         <f>'Tube A'!G23</f>
         <v>F3</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="73">
         <f>'Tube A'!F23</f>
         <v>1.2778517790000006</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="74">
         <v>8.7721384099790703E-2</v>
       </c>
-      <c r="E25" s="75" t="str">
+      <c r="E25" s="72" t="str">
         <f>'Tube B'!G23</f>
         <v>E6</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="73">
         <f>'Tube B'!F23</f>
         <v>1.2685906380000009</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="74">
         <v>8.4982168025361474E-2</v>
       </c>
-      <c r="H25" s="75" t="str">
-        <f>'Tube C'!G23</f>
-        <v>B9</v>
-      </c>
-      <c r="I25" s="76">
-        <f>'Tube C'!F23</f>
-        <v>1.2527729370000014</v>
-      </c>
-      <c r="J25" s="77">
-        <v>9.5481620469813164E-2</v>
-      </c>
-      <c r="K25" s="75" t="str">
-        <f>'Tube D'!G23</f>
-        <v>H11</v>
-      </c>
-      <c r="L25" s="76">
-        <f>'Tube D'!F23</f>
-        <v>1.2072594830000014</v>
-      </c>
-      <c r="M25" s="77">
-        <v>7.5544264175009743E-2</v>
-      </c>
-      <c r="N25" s="75" t="str">
-        <f>'Tube E'!G23</f>
-        <v>F3</v>
-      </c>
-      <c r="O25" s="76">
-        <f>'Tube E'!F23</f>
-        <v>1.5081509490000027</v>
-      </c>
-      <c r="P25" s="77">
-        <v>5.0409256790981148E-2</v>
-      </c>
-      <c r="Q25" s="66" t="str">
+      <c r="H25" s="66" t="str">
         <f>'Tube G'!G23</f>
         <v>B9</v>
       </c>
-      <c r="R25" s="76">
+      <c r="I25" s="73">
         <f>'Tube G'!F23</f>
         <v>1.264328874000002</v>
       </c>
-      <c r="S25" s="77">
+      <c r="J25" s="74">
         <v>2.6045763421185336E-2</v>
       </c>
-      <c r="T25" s="75" t="str">
-        <f>'Tube H'!G23</f>
-        <v>H11</v>
-      </c>
-      <c r="U25" s="76">
-        <f>'Tube H'!F23</f>
-        <v>1.1388527070000016</v>
-      </c>
-      <c r="V25" s="77">
-        <v>4.0954908137807979E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="13" thickTop="1">
+    </row>
+    <row r="26" spans="1:10" ht="13" thickTop="1">
       <c r="B26" s="70"/>
-      <c r="C26" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="79">
+      <c r="C26" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="76">
         <f>SUM(D5:D25)*40/'Tube Loading'!J29*100</f>
         <v>70.819536343903977</v>
       </c>
       <c r="E26" s="70"/>
-      <c r="F26" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="79">
+      <c r="F26" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="76">
         <f>SUM(G5:G25)*40/'Tube Loading'!J30*100</f>
         <v>46.494467565472064</v>
       </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="79">
-        <f>SUM(J5:J25)*40/'Tube Loading'!J31*100</f>
-        <v>65.898677066182827</v>
-      </c>
-      <c r="K26" s="80"/>
-      <c r="L26" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="M26" s="79">
-        <f>SUM(M5:M25)*40/'Tube Loading'!J32*100</f>
-        <v>57.514207550988075</v>
-      </c>
-      <c r="N26" s="70"/>
-      <c r="O26" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="P26" s="79">
-        <f>SUM(P5:P25)*40/'Tube Loading'!J33*100</f>
-        <v>37.693289211136729</v>
-      </c>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="S26" s="79">
-        <f>SUM(S5:S25)*40/'Tube Loading'!J35*100</f>
+      <c r="H26" s="80"/>
+      <c r="I26" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="76">
+        <f>SUM(J5:J25)*40/'Tube Loading'!J35*100</f>
         <v>49.759706664583277</v>
       </c>
-      <c r="T26" s="70"/>
-      <c r="U26" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="V26" s="79">
-        <f>SUM(V5:V25)*40/'Tube Loading'!J36*100</f>
-        <v>34.770913910856798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="B27" s="97" t="s">
-        <v>206</v>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="93" t="s">
+        <v>202</v>
       </c>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
       <c r="E27" s="67"/>
       <c r="F27" s="70"/>
       <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-    </row>
-    <row r="28" spans="1:22">
+    </row>
+    <row r="28" spans="1:10">
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
       <c r="E28" s="70"/>
       <c r="F28" s="70"/>
       <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="59"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:10">
       <c r="A30" s="59"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:10">
       <c r="A31" s="59"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:7">
       <c r="B55" s="70"/>
       <c r="C55" s="70"/>
       <c r="D55" s="70"/>
       <c r="E55" s="70"/>
       <c r="F55" s="70"/>
       <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-    </row>
-    <row r="56" spans="1:13">
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="59"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:7">
       <c r="A57" s="59"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:7">
       <c r="A58" s="59"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:7">
       <c r="B82" s="70"/>
       <c r="C82" s="70"/>
       <c r="D82" s="70"/>
       <c r="E82" s="70"/>
       <c r="F82" s="70"/>
       <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="70"/>
-      <c r="K82" s="70"/>
-      <c r="L82" s="70"/>
-      <c r="M82" s="70"/>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:7">
       <c r="B83" s="70"/>
       <c r="C83" s="70"/>
       <c r="D83" s="70"/>
       <c r="E83" s="70"/>
       <c r="F83" s="70"/>
       <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="70"/>
-      <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
-      <c r="L83" s="70"/>
-      <c r="M83" s="70"/>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="59"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:7">
       <c r="A85" s="59"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:7">
       <c r="A86" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
+  <mergeCells count="3">
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -20206,27 +14962,27 @@
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="95">
+      <c r="A24" s="91">
         <v>4.55</v>
       </c>
-      <c r="B24" s="95">
+      <c r="B24" s="91">
         <f t="shared" si="0"/>
         <v>1.0482882737599886</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="91">
         <f t="shared" si="1"/>
         <v>5.5982882737599882</v>
       </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95">
+      <c r="D24" s="91"/>
+      <c r="E24" s="91">
         <f>A24</f>
         <v>4.55</v>
       </c>
-      <c r="F24" s="95">
+      <c r="F24" s="91">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
-      <c r="G24" s="96">
+      <c r="G24" s="92">
         <f>B24-F24</f>
         <v>0.89828827375998854</v>
       </c>
@@ -20304,37 +15060,37 @@
       <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:11" ht="39.5" thickBot="1">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="91" t="s">
+      <c r="F28" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="92" t="s">
+      <c r="G28" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="92" t="s">
+      <c r="I28" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="K28" s="91" t="s">
+      <c r="J28" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="87" t="s">
         <v>46</v>
       </c>
     </row>
@@ -20342,17 +15098,17 @@
       <c r="A29" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="86">
+      <c r="B29" s="82">
         <v>1.4017999999999999</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="82">
         <v>20.5</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="83">
         <f t="shared" ref="D29:D40" si="5">(20-C29)*-0.000175+B29</f>
         <v>1.4018875</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="83">
         <f t="shared" ref="E29:E40" si="6">D29*10.9276-13.593</f>
         <v>1.7262658450000004</v>
       </c>
@@ -20362,11 +15118,11 @@
       <c r="G29" s="38">
         <v>61.17</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="84">
         <f>4000/G29</f>
         <v>65.391531796632336</v>
       </c>
-      <c r="I29" s="88">
+      <c r="I29" s="84">
         <f>150-H29</f>
         <v>84.608468203367664</v>
       </c>
@@ -20374,7 +15130,7 @@
         <f>G29*H29</f>
         <v>4000</v>
       </c>
-      <c r="K29" s="89">
+      <c r="K29" s="85">
         <f>G$24</f>
         <v>0.89828827375998854</v>
       </c>
@@ -20415,7 +15171,7 @@
         <f>G30*H30</f>
         <v>4000</v>
       </c>
-      <c r="K30" s="89">
+      <c r="K30" s="85">
         <f t="shared" ref="K30:K44" si="8">G$24</f>
         <v>0.89828827375998854</v>
       </c>
@@ -20424,17 +15180,17 @@
       <c r="A31" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="86">
+      <c r="B31" s="82">
         <v>1.4016999999999999</v>
       </c>
-      <c r="C31" s="86">
+      <c r="C31" s="82">
         <v>20.5</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="83">
         <f t="shared" si="5"/>
         <v>1.4017875</v>
       </c>
-      <c r="E31" s="87">
+      <c r="E31" s="83">
         <f t="shared" si="6"/>
         <v>1.7251730849999998</v>
       </c>
@@ -20444,11 +15200,11 @@
       <c r="G31" s="38">
         <v>70.84</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="84">
         <f t="shared" si="7"/>
         <v>56.4652738565782</v>
       </c>
-      <c r="I31" s="88">
+      <c r="I31" s="84">
         <f t="shared" ref="I31" si="9">150-H31</f>
         <v>93.534726143421807</v>
       </c>
@@ -20456,7 +15212,7 @@
         <f t="shared" ref="J31:J44" si="10">G31*H31</f>
         <v>4000</v>
       </c>
-      <c r="K31" s="89">
+      <c r="K31" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20497,7 +15253,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K32" s="89">
+      <c r="K32" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20506,17 +15262,17 @@
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="86">
+      <c r="B33" s="82">
         <v>1.4016999999999999</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C33" s="82">
         <v>20.5</v>
       </c>
-      <c r="D33" s="87">
+      <c r="D33" s="83">
         <f t="shared" si="5"/>
         <v>1.4017875</v>
       </c>
-      <c r="E33" s="87">
+      <c r="E33" s="83">
         <f t="shared" si="6"/>
         <v>1.7251730849999998</v>
       </c>
@@ -20526,11 +15282,11 @@
       <c r="G33" s="38">
         <v>200.97000000000003</v>
       </c>
-      <c r="H33" s="88">
+      <c r="H33" s="84">
         <f t="shared" si="7"/>
         <v>19.903468179330247</v>
       </c>
-      <c r="I33" s="88">
+      <c r="I33" s="84">
         <f t="shared" si="11"/>
         <v>130.09653182066975</v>
       </c>
@@ -20538,7 +15294,7 @@
         <f t="shared" si="10"/>
         <v>4000.0000000000005</v>
       </c>
-      <c r="K33" s="89">
+      <c r="K33" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20579,7 +15335,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K34" s="89">
+      <c r="K34" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20588,17 +15344,17 @@
       <c r="A35" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="86">
+      <c r="B35" s="82">
         <v>1.4016999999999999</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="82">
         <v>20.6</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="83">
         <f t="shared" si="5"/>
         <v>1.401805</v>
       </c>
-      <c r="E35" s="87">
+      <c r="E35" s="83">
         <f t="shared" si="6"/>
         <v>1.7253643180000005</v>
       </c>
@@ -20608,11 +15364,11 @@
       <c r="G35" s="38">
         <v>205.33999999999997</v>
       </c>
-      <c r="H35" s="88">
+      <c r="H35" s="84">
         <f t="shared" si="7"/>
         <v>19.479887016655304</v>
       </c>
-      <c r="I35" s="88">
+      <c r="I35" s="84">
         <f t="shared" si="11"/>
         <v>130.52011298334469</v>
       </c>
@@ -20620,7 +15376,7 @@
         <f t="shared" si="10"/>
         <v>3999.9999999999995</v>
       </c>
-      <c r="K35" s="89">
+      <c r="K35" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20661,7 +15417,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K36" s="89">
+      <c r="K36" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20670,17 +15426,17 @@
       <c r="A37" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="87">
+      <c r="B37" s="83">
         <v>1.4017999999999999</v>
       </c>
-      <c r="C37" s="93">
+      <c r="C37" s="89">
         <v>20.7</v>
       </c>
-      <c r="D37" s="87">
+      <c r="D37" s="83">
         <f t="shared" si="5"/>
         <v>1.4019225</v>
       </c>
-      <c r="E37" s="87">
+      <c r="E37" s="83">
         <f t="shared" si="6"/>
         <v>1.7266483109999999</v>
       </c>
@@ -20690,11 +15446,11 @@
       <c r="G37" s="38">
         <v>126.53</v>
       </c>
-      <c r="H37" s="88">
+      <c r="H37" s="84">
         <f t="shared" si="7"/>
         <v>31.613056192207381</v>
       </c>
-      <c r="I37" s="88">
+      <c r="I37" s="84">
         <f t="shared" si="11"/>
         <v>118.38694380779262</v>
       </c>
@@ -20702,7 +15458,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K37" s="89">
+      <c r="K37" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20743,7 +15499,7 @@
         <f t="shared" si="10"/>
         <v>4000.0000000000005</v>
       </c>
-      <c r="K38" s="89">
+      <c r="K38" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20752,31 +15508,31 @@
       <c r="A39" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="87">
+      <c r="B39" s="83">
         <v>1.4017999999999999</v>
       </c>
-      <c r="C39" s="93">
+      <c r="C39" s="89">
         <v>20.8</v>
       </c>
-      <c r="D39" s="87">
+      <c r="D39" s="83">
         <f t="shared" si="5"/>
         <v>1.40194</v>
       </c>
-      <c r="E39" s="87">
+      <c r="E39" s="83">
         <f t="shared" si="6"/>
         <v>1.7268395439999988</v>
       </c>
       <c r="F39" s="38">
         <v>3197</v>
       </c>
-      <c r="G39" s="94">
+      <c r="G39" s="90">
         <v>90.94</v>
       </c>
-      <c r="H39" s="88">
+      <c r="H39" s="84">
         <f t="shared" si="7"/>
         <v>43.985045084671214</v>
       </c>
-      <c r="I39" s="88">
+      <c r="I39" s="84">
         <f t="shared" si="11"/>
         <v>106.01495491532879</v>
       </c>
@@ -20784,7 +15540,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K39" s="89">
+      <c r="K39" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20825,7 +15581,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K40" s="89">
+      <c r="K40" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20834,17 +15590,17 @@
       <c r="A41" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="87">
+      <c r="B41" s="83">
         <v>1.4019999999999999</v>
       </c>
-      <c r="C41" s="93">
+      <c r="C41" s="89">
         <v>20.9</v>
       </c>
-      <c r="D41" s="87">
+      <c r="D41" s="83">
         <f t="shared" ref="D41:D44" si="12">(20-C41)*-0.000175+B41</f>
         <v>1.4021574999999999</v>
       </c>
-      <c r="E41" s="87">
+      <c r="E41" s="83">
         <f t="shared" ref="E41:E44" si="13">D41*10.9276-13.593</f>
         <v>1.7292162969999989</v>
       </c>
@@ -20854,11 +15610,11 @@
       <c r="G41" s="38">
         <v>197.77999999999997</v>
       </c>
-      <c r="H41" s="88">
+      <c r="H41" s="84">
         <f t="shared" si="7"/>
         <v>20.224491859642029</v>
       </c>
-      <c r="I41" s="88">
+      <c r="I41" s="84">
         <f t="shared" si="11"/>
         <v>129.77550814035797</v>
       </c>
@@ -20866,7 +15622,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K41" s="89">
+      <c r="K41" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20907,7 +15663,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K42" s="89">
+      <c r="K42" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20916,17 +15672,17 @@
       <c r="A43" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="87">
+      <c r="B43" s="83">
         <v>1.4017999999999999</v>
       </c>
-      <c r="C43" s="93">
+      <c r="C43" s="89">
         <v>20.9</v>
       </c>
-      <c r="D43" s="87">
+      <c r="D43" s="83">
         <f t="shared" si="12"/>
         <v>1.4019575</v>
       </c>
-      <c r="E43" s="87">
+      <c r="E43" s="83">
         <f t="shared" si="13"/>
         <v>1.7270307769999995</v>
       </c>
@@ -20936,11 +15692,11 @@
       <c r="G43" s="38">
         <v>146.1</v>
       </c>
-      <c r="H43" s="88">
+      <c r="H43" s="84">
         <f t="shared" si="7"/>
         <v>27.378507871321013</v>
       </c>
-      <c r="I43" s="88">
+      <c r="I43" s="84">
         <f t="shared" ref="I43:I44" si="14">150-H43</f>
         <v>122.62149212867899</v>
       </c>
@@ -20948,7 +15704,7 @@
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="K43" s="89">
+      <c r="K43" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -20989,7 +15745,7 @@
         <f t="shared" si="10"/>
         <v>4000.0000000000005</v>
       </c>
-      <c r="K44" s="89">
+      <c r="K44" s="85">
         <f t="shared" si="8"/>
         <v>0.89828827375998854</v>
       </c>
@@ -21012,7 +15768,7 @@
         <f>D45*10.9276-13.593</f>
         <v>1.8815743599999983</v>
       </c>
-      <c r="F45" s="85"/>
+      <c r="F45" s="81"/>
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
     </row>
@@ -23334,7 +18090,7 @@
         <v>1.6913521630000012</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -23359,7 +18115,7 @@
         <v>1.6858883630000019</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -23384,7 +18140,7 @@
         <v>1.6815173230000031</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -23409,7 +18165,7 @@
         <v>1.6738680030000008</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -23434,7 +18190,7 @@
         <v>1.6585693630000016</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -23459,7 +18215,7 @@
         <v>1.5908182430000011</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -23484,7 +18240,7 @@
         <v>1.4476666830000013</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -23509,7 +18265,7 @@
         <v>1.2072594830000014</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
